--- a/591網站爬蟲/591rent.xlsx
+++ b/591網站爬蟲/591rent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDEA3C\Desktop\RPA\591網站爬蟲\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DBD8D7-871F-4B4C-B2D7-86AA462B4C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527486C-BC5F-4794-AFC5-3B9F1D3F691A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="10185" xr2:uid="{FEF33ED9-5BE3-4FAA-B3C0-B20EAC29ABA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="10185" xr2:uid="{ED37D8AE-A8DE-4F7E-A6CD-4B111302E720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="316">
   <si>
     <t>Price</t>
   </si>
@@ -55,7 +55,7 @@
     <t>信義區-信義路五段150巷</t>
   </si>
   <si>
-    <t>12小時內更新</t>
+    <t>14小時內更新</t>
   </si>
   <si>
     <t>71人瀏覽</t>
@@ -73,342 +73,342 @@
     <t>信義區-基隆路一段172巷</t>
   </si>
   <si>
+    <t>17小時內更新</t>
+  </si>
+  <si>
+    <t>9人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區鬧中取靜全裝潢美屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8813738.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  2房2廳2衛   |  62.3坪   |  樓層：2/5</t>
+  </si>
+  <si>
+    <t>信義區-景雲街</t>
+  </si>
+  <si>
+    <t>昨日更新</t>
+  </si>
+  <si>
+    <t>12人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區精品裝潢豪邸，環境清幽，戶數稀少</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8850311.html  </t>
+  </si>
+  <si>
+    <t>分租套房   |  5坪   |  樓層：3/3</t>
+  </si>
+  <si>
+    <t>信義區-虎林街120巷38號</t>
+  </si>
+  <si>
+    <t>5天前更新</t>
+  </si>
+  <si>
+    <t>29人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區近永春捷運套房</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8753286.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  2房1廳1衛   |  34坪   |  樓層：3/14</t>
+  </si>
+  <si>
+    <t>信義區-忠孝東路四段569號</t>
+  </si>
+  <si>
+    <t>2小時內更新</t>
+  </si>
+  <si>
+    <t>103人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區全新酒店式公寓市政府捷運站一分鐘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8781753.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  3房2廳2衛   |  88.2坪   |  樓層：19/27</t>
+  </si>
+  <si>
+    <t>信義區-信義路五段</t>
+  </si>
+  <si>
+    <t>6小時內更新</t>
+  </si>
+  <si>
+    <t>8人瀏覽</t>
+  </si>
+  <si>
+    <t>●●信義區知名建案稀有釋出高樓層氣派落成</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8783214.html  </t>
+  </si>
+  <si>
+    <t>獨立套房   |  8坪   |  樓層：頂樓加蓋/4</t>
+  </si>
+  <si>
+    <t>信義區-忠孝東路五段</t>
+  </si>
+  <si>
+    <t>39分鐘內更新</t>
+  </si>
+  <si>
+    <t>93人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區BELLAVITA貴婦百貨正對面</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8858333.html  </t>
+  </si>
+  <si>
+    <t>獨立套房   |  10坪   |  樓層：3/5</t>
+  </si>
+  <si>
+    <t>信義區-吳興街600巷37弄9號</t>
+  </si>
+  <si>
+    <t>3天前更新</t>
+  </si>
+  <si>
+    <t>68人瀏覽</t>
+  </si>
+  <si>
+    <t>台北市信義區吳興街600巷生活機能優</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8828571.html  </t>
+  </si>
+  <si>
+    <t>4天前更新</t>
+  </si>
+  <si>
+    <t>35人瀏覽</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8828578.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  3房2廳2衛   |  75坪   |  樓層：19/27</t>
+  </si>
+  <si>
+    <t>5人瀏覽</t>
+  </si>
+  <si>
+    <t>松勇路松德路信義區指標性高樓景觀豪邸</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8796819.html  </t>
+  </si>
+  <si>
+    <t>獨立套房   |  10坪   |  樓層：1/10</t>
+  </si>
+  <si>
+    <t>信義區-永吉路150巷</t>
+  </si>
+  <si>
+    <t>4小時內更新</t>
+  </si>
+  <si>
+    <t>66人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區永吉路套房出租近捷運市府站</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8822999.html  </t>
+  </si>
+  <si>
+    <t>分租套房   |  6坪   |  樓層：5/5</t>
+  </si>
+  <si>
+    <t>信義區-吳興街42號</t>
+  </si>
+  <si>
+    <t>6天前更新</t>
+  </si>
+  <si>
+    <t>26人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區吳興街精緻套房~近台北101/世貿</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8592668.html  </t>
+  </si>
+  <si>
+    <t>獨立套房   |  6坪   |  樓層：4/4</t>
+  </si>
+  <si>
+    <t>信義區-吳興街284巷</t>
+  </si>
+  <si>
+    <t>31分鐘內更新</t>
+  </si>
+  <si>
+    <t>192人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區超值稀有整面窗戶靜巷單純環保套房</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8850342.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  2房1廳1衛   |  12坪   |  樓層：4/6</t>
+  </si>
+  <si>
+    <t>信義區-基隆路一段350號</t>
+  </si>
+  <si>
+    <t>274人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區鄰近世貿101國父紀念館寵可談</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8849169.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  2房1廳1衛   |  20坪   |  樓層：頂樓加蓋/4</t>
+  </si>
+  <si>
+    <t>信義區-林口街80巷</t>
+  </si>
+  <si>
+    <t>262人瀏覽</t>
+  </si>
+  <si>
+    <t>台北市信義區林口街80巷近市場捷運公園</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8844933.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  4房2廳3衛   |  100坪   |  樓層：6/12</t>
+  </si>
+  <si>
+    <t>信義區-松仁路</t>
+  </si>
+  <si>
+    <t>6人瀏覽</t>
+  </si>
+  <si>
+    <t>★信義區氣派優質豪邸★</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8756224.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  1房1廳1衛   |  48坪   |  樓層：8/14</t>
+  </si>
+  <si>
+    <t>97人瀏覽</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8781762.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  4房2廳3衛   |  126.9坪   |  樓層：2/14</t>
+  </si>
+  <si>
+    <t>信義區-松高路</t>
+  </si>
+  <si>
+    <t>信義區豪宅特區松高路電梯大樓維也納花園廣</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8788852.html  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8810388.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  2房2廳1衛   |  20坪   |  樓層：2/5</t>
+  </si>
+  <si>
     <t>15小時內更新</t>
   </si>
   <si>
-    <t>9人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區鬧中取靜全裝潢美屋</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8813738.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  2房2廳2衛   |  62.3坪   |  樓層：2/5</t>
-  </si>
-  <si>
-    <t>信義區-景雲街</t>
-  </si>
-  <si>
-    <t>昨日更新</t>
-  </si>
-  <si>
-    <t>12人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區精品裝潢豪邸，環境清幽，戶數稀少</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8850311.html  </t>
-  </si>
-  <si>
-    <t>分租套房   |  5坪   |  樓層：3/3</t>
-  </si>
-  <si>
-    <t>信義區-虎林街120巷38號</t>
-  </si>
-  <si>
-    <t>5天前更新</t>
-  </si>
-  <si>
-    <t>29人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區近永春捷運套房</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8753286.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  2房1廳1衛   |  34坪   |  樓層：3/14</t>
-  </si>
-  <si>
-    <t>信義區-忠孝東路四段569號</t>
-  </si>
-  <si>
-    <t>2小時內更新</t>
-  </si>
-  <si>
-    <t>103人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區全新酒店式公寓市政府捷運站一分鐘</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8781753.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  3房2廳3衛   |  84坪   |  樓層：6/16</t>
-  </si>
-  <si>
-    <t>信義區-市民大道六段</t>
-  </si>
-  <si>
-    <t>8天前更新</t>
-  </si>
-  <si>
-    <t>5人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區→3房一層兩戶氣派豪邸</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8688980.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  3房2廳2衛   |  88.2坪   |  樓層：19/27</t>
-  </si>
-  <si>
-    <t>信義區-信義路五段</t>
+    <t>94人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區溫馨裝潢住家2房2廳1衛1陽臺</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8845194.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  3房1廳1衛   |  17坪   |  樓層：3/7</t>
+  </si>
+  <si>
+    <t>信義區-吳興街600巷</t>
+  </si>
+  <si>
+    <t>59人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區山景超便宜2+1房獨洗曬免追垃圾車</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8819664.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  1房1廳1衛   |  11.9坪   |  樓層：6/6</t>
+  </si>
+  <si>
+    <t>信義區-忠孝東路五段215巷</t>
+  </si>
+  <si>
+    <t>56人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區市府捷運優質宅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8857788.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  1房1廳1衛   |  16坪   |  樓層：2/4</t>
+  </si>
+  <si>
+    <t>信義區-松山路187號</t>
+  </si>
+  <si>
+    <t>24小時內更新</t>
+  </si>
+  <si>
+    <t>33人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區五分埔商圈全新裝潢低樓層一房一廳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8865909.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  2房1廳1衛   |  13.5坪   |  樓層：3/9</t>
+  </si>
+  <si>
+    <t>信義區-松仁路308巷</t>
   </si>
   <si>
     <t>3小時內更新</t>
   </si>
   <si>
-    <t>8人瀏覽</t>
-  </si>
-  <si>
-    <t>●●信義區知名建案稀有釋出高樓層氣派落成</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8783214.html  </t>
-  </si>
-  <si>
-    <t>獨立套房   |  8坪   |  樓層：頂樓加蓋/4</t>
-  </si>
-  <si>
-    <t>信義區-忠孝東路五段</t>
-  </si>
-  <si>
-    <t>93人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區BELLAVITA貴婦百貨正對面</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8858333.html  </t>
-  </si>
-  <si>
-    <t>獨立套房   |  10坪   |  樓層：3/5</t>
-  </si>
-  <si>
-    <t>信義區-吳興街600巷37弄9號</t>
-  </si>
-  <si>
-    <t>3天前更新</t>
-  </si>
-  <si>
-    <t>68人瀏覽</t>
-  </si>
-  <si>
-    <t>台北市信義區吳興街600巷生活機能優</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8828571.html  </t>
-  </si>
-  <si>
-    <t>4天前更新</t>
-  </si>
-  <si>
-    <t>35人瀏覽</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8828578.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  3房2廳2衛   |  75坪   |  樓層：19/27</t>
-  </si>
-  <si>
-    <t>松勇路松德路信義區指標性高樓景觀豪邸</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8796819.html  </t>
-  </si>
-  <si>
-    <t>獨立套房   |  10坪   |  樓層：1/10</t>
-  </si>
-  <si>
-    <t>信義區-永吉路150巷</t>
-  </si>
-  <si>
-    <t>66人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區永吉路套房出租近捷運市府站</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8822999.html  </t>
-  </si>
-  <si>
-    <t>分租套房   |  6坪   |  樓層：5/5</t>
-  </si>
-  <si>
-    <t>信義區-吳興街42號</t>
-  </si>
-  <si>
-    <t>26人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區吳興街精緻套房~近台北101/世貿</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8592668.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  2房1廳1衛   |  12坪   |  樓層：4/6</t>
-  </si>
-  <si>
-    <t>信義區-基隆路一段350號</t>
-  </si>
-  <si>
-    <t>274人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區鄰近世貿101國父紀念館寵可談</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8849169.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  2房1廳1衛   |  20坪   |  樓層：頂樓加蓋/4</t>
-  </si>
-  <si>
-    <t>信義區-林口街80巷</t>
-  </si>
-  <si>
-    <t>262人瀏覽</t>
-  </si>
-  <si>
-    <t>台北市信義區林口街80巷近市場捷運公園</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8844933.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  4房2廳3衛   |  100坪   |  樓層：6/12</t>
-  </si>
-  <si>
-    <t>信義區-松仁路</t>
-  </si>
-  <si>
-    <t>6人瀏覽</t>
-  </si>
-  <si>
-    <t>★信義區氣派優質豪邸★</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8756224.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  1房1廳1衛   |  48坪   |  樓層：8/14</t>
-  </si>
-  <si>
-    <t>97人瀏覽</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8781762.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  4房2廳3衛   |  126.9坪   |  樓層：2/14</t>
-  </si>
-  <si>
-    <t>信義區-松高路</t>
-  </si>
-  <si>
-    <t>信義區豪宅特區松高路電梯大樓維也納花園廣</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8810388.html  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8788852.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  2房2廳1衛   |  20坪   |  樓層：2/5</t>
-  </si>
-  <si>
-    <t>13小時內更新</t>
-  </si>
-  <si>
-    <t>94人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區溫馨裝潢住家2房2廳1衛1陽臺</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8845194.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  2房2廳1衛   |  17坪   |  樓層：3/7</t>
-  </si>
-  <si>
-    <t>信義區-吳興街600巷</t>
-  </si>
-  <si>
-    <t>信義區溫馨二房</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8843704.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  3房1廳1衛   |  17坪   |  樓層：3/7</t>
-  </si>
-  <si>
-    <t>59人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區山景超便宜2+1房獨洗曬免追垃圾車</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8819664.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  1房1廳1衛   |  11.9坪   |  樓層：6/6</t>
-  </si>
-  <si>
-    <t>信義區-忠孝東路五段215巷</t>
-  </si>
-  <si>
-    <t>4小時內更新</t>
-  </si>
-  <si>
-    <t>56人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區市府捷運優質宅</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8857788.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  1房1廳1衛   |  16坪   |  樓層：2/4</t>
-  </si>
-  <si>
-    <t>信義區-松山路187號</t>
-  </si>
-  <si>
-    <t>22小時內更新</t>
-  </si>
-  <si>
-    <t>33人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區五分埔商圈全新裝潢低樓層一房一廳</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8865909.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  2房1廳1衛   |  13.5坪   |  樓層：3/9</t>
-  </si>
-  <si>
-    <t>信義區-松仁路308巷</t>
-  </si>
-  <si>
-    <t>24小時內更新</t>
-  </si>
-  <si>
     <t>20人瀏覽</t>
   </si>
   <si>
@@ -439,7 +439,7 @@
     <t>信義區-松壽路1號</t>
   </si>
   <si>
-    <t>60分鐘內更新</t>
+    <t>6分鐘內更新</t>
   </si>
   <si>
     <t>17人瀏覽</t>
@@ -469,6 +469,9 @@
     <t>獨立套房   |  15坪   |  樓層：8/11</t>
   </si>
   <si>
+    <t>16分鐘內更新</t>
+  </si>
+  <si>
     <t>42人瀏覽</t>
   </si>
   <si>
@@ -508,27 +511,24 @@
     <t>信義區-松勤街9號</t>
   </si>
   <si>
+    <t>22人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區101新世界高檔裝潢捷運前</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8865508.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  3房2廳2衛   |  33.6坪   |  樓層：2/6</t>
+  </si>
+  <si>
+    <t>信義區-光復南路417巷</t>
+  </si>
+  <si>
     <t>23小時內更新</t>
   </si>
   <si>
-    <t>22人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區101新世界高檔裝潢捷運前</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8865508.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  3房2廳2衛   |  33.6坪   |  樓層：2/6</t>
-  </si>
-  <si>
-    <t>信義區-光復南路417巷</t>
-  </si>
-  <si>
-    <t>21小時內更新</t>
-  </si>
-  <si>
     <t>信義區含稅價超優質三房兩衛大空間</t>
   </si>
   <si>
@@ -562,9 +562,6 @@
     <t>整層住家   |  2房2廳1衛   |  27.8坪   |  樓層：8/19</t>
   </si>
   <si>
-    <t>17小時內更新</t>
-  </si>
-  <si>
     <t>7人瀏覽</t>
   </si>
   <si>
@@ -589,9 +586,6 @@
     <t>整層住家   |  2房1廳1衛   |  26坪   |  樓層：4/19</t>
   </si>
   <si>
-    <t>6天前更新</t>
-  </si>
-  <si>
     <t>信義區稀有兩房漂亮裝潢立即可住誠可談</t>
   </si>
   <si>
@@ -646,6 +640,9 @@
     <t>信義區-永吉路30巷</t>
   </si>
   <si>
+    <t>36分鐘內更新</t>
+  </si>
+  <si>
     <t>85人瀏覽</t>
   </si>
   <si>
@@ -655,270 +652,237 @@
     <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8832428.html  </t>
   </si>
   <si>
-    <t>整層住家   |  3房2廳2衛   |  37坪   |  樓層：9/12</t>
-  </si>
-  <si>
-    <t>信義區-逸仙路26巷</t>
-  </si>
-  <si>
-    <t>信義區寧靜巷內國父紀年館家具可談</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8868167.html  </t>
-  </si>
-  <si>
     <t>整層住家   |  2房2廳1衛   |  28.5坪   |  樓層：13/15</t>
   </si>
   <si>
     <t>信義區-基隆路二段</t>
   </si>
   <si>
+    <t>7小時內更新</t>
+  </si>
+  <si>
+    <t>信義區/101/帛詩華/高樓精裝美屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8850401.html  </t>
+  </si>
+  <si>
+    <t>雅房   |  7坪   |  樓層：4/4</t>
+  </si>
+  <si>
+    <t>信義區-松信路</t>
+  </si>
+  <si>
+    <t>信義區不怕隔音的木板雅房（有床）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8856640.html  </t>
+  </si>
+  <si>
+    <t>雅房   |  3.5坪   |  樓層：5/5</t>
+  </si>
+  <si>
+    <t>信義區-松山路119巷</t>
+  </si>
+  <si>
+    <t>8小時內更新</t>
+  </si>
+  <si>
+    <t>台北市信義區雙捷運火車站雅房出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8781053.html  </t>
+  </si>
+  <si>
+    <t>車位   |  類型：平面式   |  10.4坪</t>
+  </si>
+  <si>
+    <t>信義區-忠孝東路四段559巷16弄21號</t>
+  </si>
+  <si>
+    <t>72人瀏覽</t>
+  </si>
+  <si>
+    <t>*信義區市政府站逸仙林園坡平車位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8852170.html  </t>
+  </si>
+  <si>
+    <t>獨立套房   |  11.7坪   |  樓層：B1/5</t>
+  </si>
+  <si>
+    <t>信義區-吳興街320巷</t>
+  </si>
+  <si>
+    <t>485人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區採光獨立套房-社會住宅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8762685.html  </t>
+  </si>
+  <si>
+    <t>分租套房   |  15坪   |  樓層：3/5</t>
+  </si>
+  <si>
+    <t>信義區-忠孝東路五段236巷</t>
+  </si>
+  <si>
+    <t>信義區全新裝潢~酒店式公寓!(附打掃)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8768272.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  3房1廳2衛   |  27坪   |  樓層：9/9</t>
+  </si>
+  <si>
+    <t>信義區-永吉路30巷102弄19號</t>
+  </si>
+  <si>
+    <t>信義區精緻美裝潢小豪宅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8791469.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  1房2廳1衛   |  22坪   |  樓層：4/15</t>
+  </si>
+  <si>
+    <t>信義區正一房月租公寓</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8815467.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  2房1廳4衛   |  96.6坪   |  樓層：1/5</t>
+  </si>
+  <si>
+    <t>信義區-虎林街242巷</t>
+  </si>
+  <si>
+    <t>15人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區世貿商圈住店辦1樓+地下室</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8794162.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  4房2廳2衛   |  63.3坪   |  樓層：11/14</t>
+  </si>
+  <si>
+    <t>信義區-永吉路225巷</t>
+  </si>
+  <si>
+    <t>3分鐘內更新</t>
+  </si>
+  <si>
+    <t>21人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區氣派新屋豪宅四房附坡平車位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8848008.html  </t>
+  </si>
+  <si>
+    <t>雅房   |  4坪   |  樓層：5/7</t>
+  </si>
+  <si>
+    <t>信義區-崇德街</t>
+  </si>
+  <si>
+    <t>34人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區崇德華廈近六張犁捷運站</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8752955.html  </t>
+  </si>
+  <si>
+    <t>分租套房   |  6坪   |  樓層：3/3</t>
+  </si>
+  <si>
+    <t>信義區-吳興街583巷</t>
+  </si>
+  <si>
+    <t>43人瀏覽</t>
+  </si>
+  <si>
+    <t>台北市信義區吳興街優質套房出租</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8813743.html  </t>
+  </si>
+  <si>
+    <t>分租套房   |  5坪   |  樓層：4/4</t>
+  </si>
+  <si>
+    <t>41人瀏覽</t>
+  </si>
+  <si>
+    <t>分租套房,台北市110信義區松信路</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8814829.html  </t>
+  </si>
+  <si>
+    <t>信義區-嘉興街</t>
+  </si>
+  <si>
+    <t>28人瀏覽</t>
+  </si>
+  <si>
+    <t>信義區優質舒適套房(限女性)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8829091.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  3房2廳2衛   |  40坪   |  樓層：4/12</t>
+  </si>
+  <si>
+    <t>信義區-基隆路一段101巷</t>
+  </si>
+  <si>
+    <t>信義區漂亮裝潢3房</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8786203.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  2房2廳1衛   |  32坪   |  樓層：5/15</t>
+  </si>
+  <si>
+    <t>37人瀏覽</t>
+  </si>
+  <si>
+    <t>兩房酒店式公寓信義區(近六張犁捷運站)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8822053.html  </t>
+  </si>
+  <si>
+    <t>整層住家   |  4房2廳2衛   |  54坪   |  樓層：2/14</t>
+  </si>
+  <si>
+    <t>信義區-永吉路</t>
+  </si>
+  <si>
     <t>5小時內更新</t>
   </si>
   <si>
-    <t>信義區/101/帛詩華/高樓精裝美屋</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8850401.html  </t>
-  </si>
-  <si>
-    <t>雅房   |  7坪   |  樓層：4/4</t>
-  </si>
-  <si>
-    <t>信義區-松信路</t>
-  </si>
-  <si>
-    <t>2天前更新</t>
-  </si>
-  <si>
-    <t>信義區不怕隔音的木板雅房（有床）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8856640.html  </t>
-  </si>
-  <si>
-    <t>雅房   |  3.5坪   |  樓層：5/5</t>
-  </si>
-  <si>
-    <t>信義區-松山路119巷</t>
-  </si>
-  <si>
-    <t>6小時內更新</t>
-  </si>
-  <si>
-    <t>台北市信義區雙捷運火車站雅房出租</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8781053.html  </t>
-  </si>
-  <si>
-    <t>車位   |  類型：平面式   |  10.4坪</t>
-  </si>
-  <si>
-    <t>信義區-忠孝東路四段559巷16弄21號</t>
-  </si>
-  <si>
-    <t>50分鐘內更新</t>
-  </si>
-  <si>
-    <t>72人瀏覽</t>
-  </si>
-  <si>
-    <t>*信義區市政府站逸仙林園坡平車位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8852170.html  </t>
-  </si>
-  <si>
-    <t>獨立套房   |  11.7坪   |  樓層：B1/5</t>
-  </si>
-  <si>
-    <t>信義區-吳興街320巷</t>
-  </si>
-  <si>
-    <t>485人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區採光獨立套房-社會住宅</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8762685.html  </t>
-  </si>
-  <si>
-    <t>分租套房   |  15坪   |  樓層：3/5</t>
-  </si>
-  <si>
-    <t>信義區-忠孝東路五段236巷</t>
-  </si>
-  <si>
-    <t>信義區全新裝潢~酒店式公寓!(附打掃)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8768272.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  3房1廳2衛   |  27坪   |  樓層：9/9</t>
-  </si>
-  <si>
-    <t>信義區-永吉路30巷102弄19號</t>
-  </si>
-  <si>
-    <t>信義區精緻美裝潢小豪宅</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8791469.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  1房2廳1衛   |  22坪   |  樓層：4/15</t>
-  </si>
-  <si>
-    <t>信義區正一房月租公寓</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8815467.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  2房1廳4衛   |  96.6坪   |  樓層：1/5</t>
-  </si>
-  <si>
-    <t>信義區-虎林街242巷</t>
-  </si>
-  <si>
-    <t>15人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區世貿商圈住店辦1樓+地下室</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8794162.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  4房2廳2衛   |  63.3坪   |  樓層：11/14</t>
-  </si>
-  <si>
-    <t>信義區-永吉路225巷</t>
-  </si>
-  <si>
-    <t>21人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區氣派新屋豪宅四房附坡平車位</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8848008.html  </t>
-  </si>
-  <si>
-    <t>雅房   |  4坪   |  樓層：5/7</t>
-  </si>
-  <si>
-    <t>信義區-崇德街</t>
-  </si>
-  <si>
-    <t>34人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區崇德華廈近六張犁捷運站</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8752955.html  </t>
-  </si>
-  <si>
-    <t>分租套房   |  6坪   |  樓層：3/3</t>
-  </si>
-  <si>
-    <t>信義區-吳興街583巷</t>
-  </si>
-  <si>
-    <t>43人瀏覽</t>
-  </si>
-  <si>
-    <t>台北市信義區吳興街優質套房出租</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8813743.html  </t>
-  </si>
-  <si>
-    <t>分租套房   |  5坪   |  樓層：4/4</t>
-  </si>
-  <si>
-    <t>41人瀏覽</t>
-  </si>
-  <si>
-    <t>分租套房,台北市110信義區松信路</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8814829.html  </t>
-  </si>
-  <si>
-    <t>信義區-嘉興街</t>
-  </si>
-  <si>
-    <t>28人瀏覽</t>
-  </si>
-  <si>
-    <t>信義區優質舒適套房(限女性)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8829091.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  3房2廳2衛   |  40坪   |  樓層：4/12</t>
-  </si>
-  <si>
-    <t>信義區-基隆路一段101巷</t>
-  </si>
-  <si>
-    <t>信義區漂亮裝潢3房</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8786203.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  2房2廳1衛   |  32坪   |  樓層：5/15</t>
-  </si>
-  <si>
-    <t>37人瀏覽</t>
-  </si>
-  <si>
-    <t>兩房酒店式公寓信義區(近六張犁捷運站)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8822053.html  </t>
-  </si>
-  <si>
-    <t>整層住家   |  4房2廳2衛   |  54坪   |  樓層：2/14</t>
-  </si>
-  <si>
-    <t>信義區-永吉路</t>
-  </si>
-  <si>
     <t>MRT永春信義區4房~名邸~稀有釋出</t>
   </si>
   <si>
     <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8806772.html  </t>
   </si>
   <si>
-    <t>整層住家   |  4房2廳2衛   |  54.4坪   |  樓層：2/14</t>
-  </si>
-  <si>
-    <t>信義區質感裝潢.空間大.生活機能佳</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-8766078.html  </t>
-  </si>
-  <si>
-    <t>獨立套房   |  4坪   |  樓層：頂樓加蓋/4</t>
-  </si>
-  <si>
-    <t>信義區-忠孝東路五段703巷</t>
-  </si>
-  <si>
-    <t>信義區最優質便宜套房</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //rent.591.com.tw/rent-detail-7640258.html  </t>
-  </si>
-  <si>
     <t>雅房   |  6坪   |  樓層：4/4</t>
   </si>
   <si>
@@ -977,9 +941,6 @@
   </si>
   <si>
     <t>分租套房   |  26坪   |  樓層：3/5</t>
-  </si>
-  <si>
-    <t>35分鐘內更新</t>
   </si>
   <si>
     <t>61人瀏覽</t>
@@ -1378,8 +1339,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DA5D4D-1504-4590-A246-37AE65F81A99}">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB2D57A-59E4-44FD-BD11-47DB1669E4A3}">
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,1644 +1465,1426 @@
       <c r="A6" s="1">
         <v>137000</v>
       </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>137000</v>
+        <v>149999</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>139999</v>
+        <v>15000</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>149999</v>
+        <v>15000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>149999</v>
+        <v>15000</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>150000</v>
+        <v>16500</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>16000</v>
+        <v>17500</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16000</v>
+        <v>200000</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17500</v>
+        <v>215000</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18000</v>
+        <v>230000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18000</v>
+        <v>230000</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>200000</v>
+        <v>24000</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>215000</v>
+        <v>25500</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>215000</v>
+        <v>28000</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>230000</v>
+        <v>28000</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>230000</v>
+        <v>29998</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24000</v>
+        <v>3000</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25000</v>
+        <v>3400</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s">
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>25500</v>
+        <v>31000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>25500</v>
+        <v>31000</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28000</v>
+        <v>35000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>29998</v>
+        <v>38000</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3000</v>
+        <v>42000</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3400</v>
+        <v>42000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3400</v>
+        <v>43000</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>31000</v>
+        <v>45000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>31000</v>
+        <v>45000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>31000</v>
+        <v>48000</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="G39" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>31000</v>
+        <v>5000</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="G40" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>35000</v>
+        <v>5200</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>35000</v>
+        <v>52000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>35000</v>
+        <v>6000</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>35000</v>
+        <v>6200</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>38000</v>
+        <v>6500</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="F46" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42000</v>
+        <v>6875</v>
+      </c>
+      <c r="B47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42000</v>
+        <v>65000</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42000</v>
+        <v>65000</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43000</v>
+        <v>68000</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45000</v>
+        <v>68000</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="F51" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45000</v>
+        <v>68999</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="F52" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>48000</v>
+        <v>7500</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="G53" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="F54" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="G54" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5200</v>
+        <v>7700</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="F55" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>52000</v>
+        <v>7800</v>
+      </c>
+      <c r="B56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>52000</v>
+        <v>70000</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="G57" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>58000</v>
+        <v>73000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" t="s">
+        <v>277</v>
+      </c>
+      <c r="F58" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58000</v>
+        <v>76000</v>
+      </c>
+      <c r="B59" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" t="s">
+        <v>282</v>
+      </c>
+      <c r="E59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" t="s">
+        <v>283</v>
+      </c>
+      <c r="G59" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>58000</v>
+        <v>8500</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>286</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>287</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="G60" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>58000</v>
+        <v>8500</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="F61" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="G61" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>6000</v>
+        <v>80000</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="D62" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>6200</v>
+        <v>82000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>299</v>
+      </c>
+      <c r="G63" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>6200</v>
+        <v>83000</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="G64" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>6500</v>
+        <v>84000</v>
+      </c>
+      <c r="B65" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" t="s">
+        <v>305</v>
+      </c>
+      <c r="F65" t="s">
+        <v>306</v>
+      </c>
+      <c r="G65" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="G66" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>6875</v>
+        <v>95000</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>65000</v>
-      </c>
-      <c r="B69" t="s">
-        <v>239</v>
-      </c>
-      <c r="C69" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69" t="s">
-        <v>230</v>
-      </c>
-      <c r="E69" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" t="s">
-        <v>241</v>
-      </c>
-      <c r="G69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>65000</v>
-      </c>
-      <c r="B70" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" t="s">
-        <v>244</v>
-      </c>
-      <c r="D70" t="s">
-        <v>60</v>
-      </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" t="s">
-        <v>245</v>
-      </c>
-      <c r="G70" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>68000</v>
-      </c>
-      <c r="B73" t="s">
-        <v>247</v>
-      </c>
-      <c r="C73" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" t="s">
-        <v>248</v>
-      </c>
-      <c r="G73" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>68000</v>
-      </c>
-      <c r="B74" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" t="s">
-        <v>251</v>
-      </c>
-      <c r="D74" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" t="s">
-        <v>252</v>
-      </c>
-      <c r="F74" t="s">
-        <v>253</v>
-      </c>
-      <c r="G74" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>68999</v>
-      </c>
-      <c r="B75" t="s">
-        <v>255</v>
-      </c>
-      <c r="C75" t="s">
-        <v>256</v>
-      </c>
-      <c r="D75" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" t="s">
-        <v>257</v>
-      </c>
-      <c r="F75" t="s">
-        <v>258</v>
-      </c>
-      <c r="G75" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>7500</v>
-      </c>
-      <c r="B77" t="s">
-        <v>260</v>
-      </c>
-      <c r="C77" t="s">
-        <v>261</v>
-      </c>
-      <c r="D77" t="s">
-        <v>215</v>
-      </c>
-      <c r="E77" t="s">
-        <v>262</v>
-      </c>
-      <c r="F77" t="s">
-        <v>263</v>
-      </c>
-      <c r="G77" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>7500</v>
-      </c>
-      <c r="B78" t="s">
-        <v>265</v>
-      </c>
-      <c r="C78" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" t="s">
-        <v>56</v>
-      </c>
-      <c r="E78" t="s">
-        <v>267</v>
-      </c>
-      <c r="F78" t="s">
-        <v>268</v>
-      </c>
-      <c r="G78" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>7700</v>
-      </c>
-      <c r="B79" t="s">
-        <v>270</v>
-      </c>
-      <c r="C79" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" t="s">
-        <v>56</v>
-      </c>
-      <c r="E79" t="s">
-        <v>271</v>
-      </c>
-      <c r="F79" t="s">
-        <v>272</v>
-      </c>
-      <c r="G79" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>7800</v>
-      </c>
-      <c r="B81" t="s">
-        <v>270</v>
-      </c>
-      <c r="C81" t="s">
-        <v>274</v>
-      </c>
-      <c r="D81" t="s">
-        <v>114</v>
-      </c>
-      <c r="E81" t="s">
-        <v>275</v>
-      </c>
-      <c r="F81" t="s">
-        <v>276</v>
-      </c>
-      <c r="G81" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>70000</v>
-      </c>
-      <c r="B82" t="s">
-        <v>278</v>
-      </c>
-      <c r="C82" t="s">
-        <v>279</v>
-      </c>
-      <c r="D82" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" t="s">
-        <v>46</v>
-      </c>
-      <c r="F82" t="s">
-        <v>280</v>
-      </c>
-      <c r="G82" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>73000</v>
-      </c>
-      <c r="B84" t="s">
-        <v>282</v>
-      </c>
-      <c r="C84" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F84" t="s">
-        <v>284</v>
-      </c>
-      <c r="G84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>76000</v>
-      </c>
-      <c r="B86" t="s">
-        <v>286</v>
-      </c>
-      <c r="C86" t="s">
-        <v>287</v>
-      </c>
-      <c r="D86" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" t="s">
-        <v>183</v>
-      </c>
-      <c r="F86" t="s">
-        <v>288</v>
-      </c>
-      <c r="G86" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>76000</v>
-      </c>
-      <c r="B87" t="s">
-        <v>290</v>
-      </c>
-      <c r="C87" t="s">
-        <v>287</v>
-      </c>
-      <c r="F87" t="s">
-        <v>291</v>
-      </c>
-      <c r="G87" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>8500</v>
-      </c>
-      <c r="B90" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" t="s">
-        <v>294</v>
-      </c>
-      <c r="F90" t="s">
-        <v>295</v>
-      </c>
-      <c r="G90" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>8500</v>
-      </c>
-      <c r="B91" t="s">
-        <v>297</v>
-      </c>
-      <c r="C91" t="s">
-        <v>298</v>
-      </c>
-      <c r="D91" t="s">
-        <v>114</v>
-      </c>
-      <c r="E91" t="s">
-        <v>299</v>
-      </c>
-      <c r="F91" t="s">
-        <v>300</v>
-      </c>
-      <c r="G91" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>8500</v>
-      </c>
-      <c r="B92" t="s">
-        <v>302</v>
-      </c>
-      <c r="C92" t="s">
-        <v>303</v>
-      </c>
-      <c r="D92" t="s">
-        <v>21</v>
-      </c>
-      <c r="E92" t="s">
-        <v>304</v>
-      </c>
-      <c r="F92" t="s">
-        <v>305</v>
-      </c>
-      <c r="G92" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>80000</v>
-      </c>
-      <c r="B94" t="s">
-        <v>307</v>
-      </c>
-      <c r="C94" t="s">
-        <v>308</v>
-      </c>
-      <c r="D94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E94" t="s">
-        <v>57</v>
-      </c>
-      <c r="F94" t="s">
-        <v>241</v>
-      </c>
-      <c r="G94" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>82000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>82000</v>
-      </c>
-      <c r="B96" t="s">
-        <v>310</v>
-      </c>
-      <c r="C96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D96" t="s">
-        <v>114</v>
-      </c>
-      <c r="E96" t="s">
-        <v>46</v>
-      </c>
-      <c r="F96" t="s">
-        <v>311</v>
-      </c>
-      <c r="G96" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>83000</v>
-      </c>
-      <c r="B97" t="s">
-        <v>313</v>
-      </c>
-      <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" t="s">
-        <v>46</v>
-      </c>
-      <c r="F97" t="s">
-        <v>314</v>
-      </c>
-      <c r="G97" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>84000</v>
-      </c>
-      <c r="B99" t="s">
-        <v>316</v>
-      </c>
-      <c r="C99" t="s">
-        <v>308</v>
-      </c>
-      <c r="D99" t="s">
-        <v>317</v>
-      </c>
-      <c r="E99" t="s">
-        <v>318</v>
-      </c>
-      <c r="F99" t="s">
-        <v>319</v>
-      </c>
-      <c r="G99" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>9000</v>
-      </c>
-      <c r="B100" t="s">
-        <v>321</v>
-      </c>
-      <c r="C100" t="s">
-        <v>322</v>
-      </c>
-      <c r="D100" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" t="s">
-        <v>323</v>
-      </c>
-      <c r="F100" t="s">
-        <v>324</v>
-      </c>
-      <c r="G100" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>95000</v>
-      </c>
-      <c r="B101" t="s">
-        <v>326</v>
-      </c>
-      <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F101" t="s">
-        <v>327</v>
-      </c>
-      <c r="G101" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +2895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91636499-5952-4478-A842-C73D8BF76EC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14D4E4C-888F-4A09-A49D-5DB281D03A67}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
